--- a/gpt5-mini-测试结果.xlsx
+++ b/gpt5-mini-测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm\langchain_test\agent_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0083A2FE-F2B6-4C36-9701-951364AB328F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF7CC77-8DC7-4540-ADD7-150BAAE36250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1F6E8963-20AE-4B04-A73E-FF38AFA7D86E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>1. 网络状况</t>
   </si>
@@ -91,217 +91,238 @@
     <t>26. 天黑时，如果窗户没关，告诉我。</t>
   </si>
   <si>
+    <t>28. 如果5分钟没有检测到人，就关闭所有灯。</t>
+  </si>
+  <si>
+    <t>29. 当客厅窗户关闭时，关闭智能插座。</t>
+  </si>
+  <si>
+    <t>30. 如果门窗传感器打开，在音箱上提醒我。</t>
+  </si>
+  <si>
+    <t>31. 如果客厅窗户打开超过 30 分钟，通知我。</t>
+  </si>
+  <si>
+    <t>32. 太安静了，放点音乐</t>
+  </si>
+  <si>
+    <t>33. 打开床边灯</t>
+  </si>
+  <si>
+    <t>34. 我要睡觉了</t>
+  </si>
+  <si>
+    <t>35. 我正在接电话，调一下音箱的音量</t>
+  </si>
+  <si>
+    <t>36. 我要起夜，灯开一下</t>
+  </si>
+  <si>
+    <t>37. 准备出门。关闭所有非必要的设备。</t>
+  </si>
+  <si>
+    <t>38. 我要开始看书了，把灯调到合适模式</t>
+  </si>
+  <si>
+    <t>39. 将客厅灯调至我最喜欢的色温。</t>
+  </si>
+  <si>
+    <t>40. 我回家了</t>
+  </si>
+  <si>
+    <t>41. 我想听个故事</t>
+  </si>
+  <si>
+    <t>42. 网关如果连的不是我的网络，把所有灯关掉，然后再打开，吓吓他</t>
+  </si>
+  <si>
+    <t>43. 为家里营造万圣节气氛。</t>
+  </si>
+  <si>
+    <t>44. 关闭氛围组设备</t>
+  </si>
+  <si>
+    <t>46. 准备睡觉</t>
+  </si>
+  <si>
+    <t>47. 现在是周六晚上了，明天记得叫我起床。</t>
+  </si>
+  <si>
+    <t>49. 帮我配置下网关的勿扰模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50. 哦，今天天气真好 </t>
+  </si>
+  <si>
+    <t>one_prompt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasha</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>our</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>48. 又到暑假了，现在我准备睡觉了。我有错过什么吗？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>45. 我的服务器居然没响应了，你有什么头绪吗？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>反问？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用错误service</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐调用错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体ID传递错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱调用错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 打开台灯，但保持网关灯亮着。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊？没调用api，纯臆想</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久化代码似乎改写的有问题，只说不调用工具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用api错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未调用Python工具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码瞎编，没调用设别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码不合逻辑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道要放周杰伦的，但是调用api失败</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未设置亮度20%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>只获取到了一个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 把卧室灯关掉，打开客厅灯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>our-new</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱没静音</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未正确调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>还开了卧室灯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用音箱api错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未调用偏好</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了很多多余操作，而且还没设置好网关模式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用发送命令api，但格式错误（格式错误不会返回错误执行反馈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可对可不对，亮度是调低了，但是并没有先查看亮度，再设置值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接设，而不是在加密数据的基础上加加减减</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱api格式错误（格式错误不会返回错误执行反馈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密数据传递中多出字符？！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用记忆，但没有与实际网络比较</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未调用记忆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用记忆了，但没提问正确，导致未找到相关记忆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行调用工具，qwen卡着。卡了半小时多。重测后，关闭了插座</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. 当音箱关闭时，打开台灯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>27. 当台灯打开时，打开插座</t>
-  </si>
-  <si>
-    <t>28. 如果5分钟没有检测到人，就关闭所有灯。</t>
-  </si>
-  <si>
-    <t>29. 当客厅窗户关闭时，关闭智能插座。</t>
-  </si>
-  <si>
-    <t>30. 如果门窗传感器打开，在音箱上提醒我。</t>
-  </si>
-  <si>
-    <t>31. 如果客厅窗户打开超过 30 分钟，通知我。</t>
-  </si>
-  <si>
-    <t>32. 太安静了，放点音乐</t>
-  </si>
-  <si>
-    <t>33. 打开床边灯</t>
-  </si>
-  <si>
-    <t>34. 我要睡觉了</t>
-  </si>
-  <si>
-    <t>35. 我正在接电话，调一下音箱的音量</t>
-  </si>
-  <si>
-    <t>36. 我要起夜，灯开一下</t>
-  </si>
-  <si>
-    <t>37. 准备出门。关闭所有非必要的设备。</t>
-  </si>
-  <si>
-    <t>38. 我要开始看书了，把灯调到合适模式</t>
-  </si>
-  <si>
-    <t>39. 将客厅灯调至我最喜欢的色温。</t>
-  </si>
-  <si>
-    <t>40. 我回家了</t>
-  </si>
-  <si>
-    <t>41. 我想听个故事</t>
-  </si>
-  <si>
-    <t>42. 网关如果连的不是我的网络，把所有灯关掉，然后再打开，吓吓他</t>
-  </si>
-  <si>
-    <t>43. 为家里营造万圣节气氛。</t>
-  </si>
-  <si>
-    <t>44. 关闭氛围组设备</t>
-  </si>
-  <si>
-    <t>46. 准备睡觉</t>
-  </si>
-  <si>
-    <t>47. 现在是周六晚上了，明天记得叫我起床。</t>
-  </si>
-  <si>
-    <t>49. 帮我配置下网关的勿扰模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50. 哦，今天天气真好 </t>
-  </si>
-  <si>
-    <t>one_prompt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasha</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>our</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>48. 又到暑假了，现在我准备睡觉了。我有错过什么吗？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>45. 我的服务器居然没响应了，你有什么头绪吗？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>25. 当插座关闭时，打开台灯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>反问？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用错误service</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐调用错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体ID传递错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>音箱调用错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>16. 打开台灯，但保持网关灯亮着。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊？没调用api，纯臆想</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>持久化代码似乎改写的有问题，只说不调用工具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用api错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未调用Python工具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码瞎编，没调用设别</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码不合逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>知道要放周杰伦的，但是调用api失败</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未设置亮度20%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>只获取到了一个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>17. 把卧室灯关掉，打开客厅灯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>our-new</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>音箱没静音</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未正确调用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>还开了卧室灯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用音箱api错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未调用偏好</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>做了很多多余操作，而且还没设置好网关模式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用发送命令api，但格式错误（格式错误不会返回错误执行反馈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>可对可不对，亮度是调低了，但是并没有先查看亮度，再设置值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接设，而不是在加密数据的基础上加加减减</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>音箱api格式错误（格式错误不会返回错误执行反馈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密数据传递中多出字符？！</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1256,14 +1277,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522BB15A-F47A-4E16-ADB3-4C9FFD1D6F3E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="44.44140625" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
@@ -1273,19 +1294,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,19 +1334,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,19 +1354,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,19 +1374,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,19 +1394,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,19 +1414,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,19 +1434,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,19 +1454,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,19 +1494,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,19 +1514,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,19 +1534,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,19 +1554,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,19 +1574,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,59 +1594,59 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,19 +1654,19 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,19 +1674,19 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,19 +1694,19 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,19 +1714,19 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,19 +1734,19 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,19 +1754,19 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,230 +1774,308 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>39</v>
       </c>
-      <c r="D44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>40</v>
       </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="D47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>42</v>
-      </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="F51" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1998,7 +2097,7 @@
       </c>
       <c r="F52">
         <f>COUNTIF(F2:F51, "ok")</f>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/gpt5-mini-测试结果.xlsx
+++ b/gpt5-mini-测试结果.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm\langchain_test\agent_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF7CC77-8DC7-4540-ADD7-150BAAE36250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA441791-0088-43BB-9D30-6C10C61AD998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1F6E8963-20AE-4B04-A73E-FF38AFA7D86E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{1F6E8963-20AE-4B04-A73E-FF38AFA7D86E}"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
+    <sheet name="第二轮" sheetId="2" r:id="rId2"/>
+    <sheet name="第三轮" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="102">
   <si>
     <t>1. 网络状况</t>
   </si>
@@ -323,6 +325,65 @@
   </si>
   <si>
     <t>27. 当台灯打开时，打开插座</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can set that up — a couple quick questions so I do exactly what you want:</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>whenever it becomes dark while any window is open?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>APIConnectionError</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>so I configure it how you want:</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>No？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体id传递错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未调暗，还设置了台灯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未调用持久哈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗漏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>反问</t>
+  </si>
+  <si>
+    <t>反问</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>which device is your "desk lamp"?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>还开了台灯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯泡？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地模型处理</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +548,21 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -916,9 +992,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1277,9 +1362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522BB15A-F47A-4E16-ADB3-4C9FFD1D6F3E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A28" sqref="A28:XFD28"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2105,4 +2190,1656 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEF2AF3-8257-4A58-AE2A-2706D8930890}">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <f>COUNTIF(B2:B51, "ok")</f>
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <f>COUNTIF(C2:C51, "ok")</f>
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <f>COUNTIF(D2:D51, "ok")</f>
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <f>COUNTIF(E2:E51, "ok")</f>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541DC3FE-F2BB-4998-B23D-4F42662A154B}">
+  <dimension ref="A1:E96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
+        <f>COUNTIF(B2:B51, "ok")</f>
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <f>COUNTIF(C2:C51, "ok")</f>
+        <v>18</v>
+      </c>
+      <c r="D52" s="1">
+        <f>COUNTIF(D2:D51, "ok")</f>
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <f>COUNTIF(E2:E51, "ok")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gpt5-mini-测试结果.xlsx
+++ b/gpt5-mini-测试结果.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm\langchain_test\agent_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA441791-0088-43BB-9D30-6C10C61AD998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0ED739-4ED7-47F2-9B1C-827E1AD33A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{1F6E8963-20AE-4B04-A73E-FF38AFA7D86E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{1F6E8963-20AE-4B04-A73E-FF38AFA7D86E}"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
     <sheet name="第二轮" sheetId="2" r:id="rId2"/>
     <sheet name="第三轮" sheetId="3" r:id="rId3"/>
+    <sheet name="第四轮" sheetId="4" r:id="rId4"/>
+    <sheet name="统计" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="110">
   <si>
     <t>1. 网络状况</t>
   </si>
@@ -384,6 +386,37 @@
   </si>
   <si>
     <t>本地模型处理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>no？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆未调用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>只获取状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置持久化？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>APIConnectionError</t>
+  </si>
+  <si>
+    <t>直接设置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> there are no light devices registered in my memory.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1036,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1362,9 +1404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522BB15A-F47A-4E16-ADB3-4C9FFD1D6F3E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42:XFD42"/>
+      <selection pane="topRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2196,9 +2238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEF2AF3-8257-4A58-AE2A-2706D8930890}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2939,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541DC3FE-F2BB-4998-B23D-4F42662A154B}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3842,4 +3884,3377 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAEA48A-A533-46BC-8F33-E1B8F9A5A1BB}">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
+        <f>COUNTIF(B2:B51, "ok")</f>
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <f>COUNTIF(C2:C51, "ok")</f>
+        <v>16</v>
+      </c>
+      <c r="D52" s="1">
+        <f>COUNTIF(D2:D51, "ok")</f>
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <f>COUNTIF(E2:E51, "ok")</f>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF06A56-D143-4A1F-B8D6-603FAEDBD55A}">
+  <dimension ref="A1:Q96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="21" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" customWidth="1"/>
+    <col min="16" max="17" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(COUNTIF(B2:D2,"ok")&gt;0,"ok","")</f>
+        <v>ok</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(COUNTIF(F2:H2,"ok")&gt;0,"ok","")</f>
+        <v>ok</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(COUNTIF(J2:L2,"ok")&gt;0,"ok","")</f>
+        <v>ok</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f>IF(COUNTIF(N2:P2,"ok")&gt;0,"ok","")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E51" si="0">IF(COUNTIF(B3:D3,"ok")&gt;0,"ok","")</f>
+        <v>ok</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I51" si="1">IF(COUNTIF(F3:H3,"ok")&gt;0,"ok","")</f>
+        <v>ok</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M51" si="2">IF(COUNTIF(J3:L3,"ok")&gt;0,"ok","")</f>
+        <v>ok</v>
+      </c>
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" ref="Q3:Q51" si="3">IF(COUNTIF(N3:P3,"ok")&gt;0,"ok","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N20" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N24" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N31" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N32" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N36" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J38" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N40" t="s">
+        <v>50</v>
+      </c>
+      <c r="P40" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N41" t="s">
+        <v>50</v>
+      </c>
+      <c r="O41" t="s">
+        <v>50</v>
+      </c>
+      <c r="P41" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J42" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N43" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N44" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N45" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N47" t="s">
+        <v>82</v>
+      </c>
+      <c r="O47" t="s">
+        <v>50</v>
+      </c>
+      <c r="P47" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N48" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v>ok</v>
+      </c>
+      <c r="N50" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N51" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
+        <f>COUNTIF(B2:B51, "ok")</f>
+        <v>20</v>
+      </c>
+      <c r="C52" s="1">
+        <f>COUNTIF(C2:C51, "ok")</f>
+        <v>20</v>
+      </c>
+      <c r="D52" s="1">
+        <f>COUNTIF(D2:D51, "ok")</f>
+        <v>20</v>
+      </c>
+      <c r="E52" s="6">
+        <f>COUNTIF(E2:E51, "ok")</f>
+        <v>21</v>
+      </c>
+      <c r="F52">
+        <f>COUNTIF(F2:F51, "ok")</f>
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <f>COUNTIF(G2:G51, "ok")</f>
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <f>COUNTIF(H2:H51, "ok")</f>
+        <v>16</v>
+      </c>
+      <c r="I52" s="5">
+        <f>COUNTIF(I2:I51, "ok")</f>
+        <v>19</v>
+      </c>
+      <c r="J52">
+        <f>COUNTIF(J2:J51, "ok")</f>
+        <v>25</v>
+      </c>
+      <c r="K52" s="1">
+        <f>COUNTIF(K2:K51, "ok")</f>
+        <v>24</v>
+      </c>
+      <c r="L52" s="1">
+        <f>COUNTIF(L2:L51, "ok")</f>
+        <v>24</v>
+      </c>
+      <c r="M52" s="6">
+        <f>COUNTIF(M2:M51, "ok")</f>
+        <v>33</v>
+      </c>
+      <c r="N52">
+        <f>COUNTIF(N2:N51, "ok")</f>
+        <v>23</v>
+      </c>
+      <c r="O52">
+        <f>COUNTIF(O2:O51, "ok")</f>
+        <v>24</v>
+      </c>
+      <c r="P52">
+        <f>COUNTIF(P2:P51, "ok")</f>
+        <v>23</v>
+      </c>
+      <c r="Q52" s="5">
+        <f>COUNTIF(Q2:Q51, "ok")</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gpt5-mini-测试结果.xlsx
+++ b/gpt5-mini-测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm\langchain_test\agent_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0ED739-4ED7-47F2-9B1C-827E1AD33A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E12F7D-464E-4D5C-A1B3-1CD927108FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{1F6E8963-20AE-4B04-A73E-FF38AFA7D86E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1F6E8963-20AE-4B04-A73E-FF38AFA7D86E}"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522BB15A-F47A-4E16-ADB3-4C9FFD1D6F3E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
@@ -2238,9 +2238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEF2AF3-8257-4A58-AE2A-2706D8930890}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2981,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541DC3FE-F2BB-4998-B23D-4F42662A154B}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3891,7 +3891,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E1" sqref="E1:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4356,7 +4356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4634,9 +4634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF06A56-D143-4A1F-B8D6-603FAEDBD55A}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7057,67 +7057,67 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
-        <f>COUNTIF(B2:B51, "ok")</f>
+        <f t="shared" ref="B52:Q52" si="4">COUNTIF(B2:B51, "ok")</f>
         <v>20</v>
       </c>
       <c r="C52" s="1">
-        <f>COUNTIF(C2:C51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D52" s="1">
-        <f>COUNTIF(D2:D51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E52" s="6">
-        <f>COUNTIF(E2:E51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="F52">
-        <f>COUNTIF(F2:F51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G52">
-        <f>COUNTIF(G2:G51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="H52">
-        <f>COUNTIF(H2:H51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I52" s="5">
-        <f>COUNTIF(I2:I51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="J52">
-        <f>COUNTIF(J2:J51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="K52" s="1">
-        <f>COUNTIF(K2:K51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L52" s="1">
-        <f>COUNTIF(L2:L51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="M52" s="6">
-        <f>COUNTIF(M2:M51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="N52">
-        <f>COUNTIF(N2:N51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="O52">
-        <f>COUNTIF(O2:O51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="P52">
-        <f>COUNTIF(P2:P51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="Q52" s="5">
-        <f>COUNTIF(Q2:Q51, "ok")</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
